--- a/Capacity_Planning/lib/Result.xlsx
+++ b/Capacity_Planning/lib/Result.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="yft" sheetId="1" r:id="rId1"/>
     <sheet name="zft" sheetId="2" r:id="rId2"/>
-    <sheet name="Tnt" sheetId="3" r:id="rId3"/>
+    <sheet name="TInt" sheetId="3" r:id="rId3"/>
+    <sheet name="GIft" sheetId="5" r:id="rId4"/>
+    <sheet name="CEt" sheetId="4" r:id="rId5"/>
+    <sheet name="Qft" sheetId="6" r:id="rId6"/>
+    <sheet name="delta_qft" sheetId="7" r:id="rId7"/>
+    <sheet name="Xft" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -359,7 +364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -367,4 +372,64 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>